--- a/Excel/SeasonLevelConfig.xlsx
+++ b/Excel/SeasonLevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF799DE7-05EC-4F40-A3D3-A28E4B787B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5EA797-802F-4D60-B7C6-1C892CF8FB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonLevelProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -47,10 +47,79 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1;100</t>
-  </si>
-  <si>
-    <t>1;100</t>
+    <t>1;140000@10000159;20@10010083;20@10000143;5@10000158;2</t>
+  </si>
+  <si>
+    <t>1;160000@10000159;20@10010083;20@10000143;5@10000158;2</t>
+  </si>
+  <si>
+    <t>1;180000@10000159;20@10010083;20@10000143;5@10000158;2</t>
+  </si>
+  <si>
+    <t>1;200000@10000159;20@10010083;20@10000143;5@10000158;3</t>
+  </si>
+  <si>
+    <t>1;220000@10000159;25@10010083;25@10000143;5@10000158;3</t>
+  </si>
+  <si>
+    <t>1;240000@10000159;25@10010083;25@10000143;5@10000158;3</t>
+  </si>
+  <si>
+    <t>1;260000@10000159;25@10010083;25@10000143;5@10000158;3</t>
+  </si>
+  <si>
+    <t>1;280000@10000159;25@10010083;25@10000143;5@10000158;3</t>
+  </si>
+  <si>
+    <t>1;300000@10000159;25@10010083;25@10000143;10@10000158;4</t>
+  </si>
+  <si>
+    <t>1;320000@10000159;30@10010083;30@10000143;10@10000158;4</t>
+  </si>
+  <si>
+    <t>1;340000@10000159;30@10010083;30@10000143;10@10000158;4</t>
+  </si>
+  <si>
+    <t>1;360000@10000159;30@10010083;30@10000143;10@10000158;4</t>
+  </si>
+  <si>
+    <t>1;380000@10000159;30@10010083;30@10000143;10@10000158;4</t>
+  </si>
+  <si>
+    <t>1;400000@10000159;30@10010083;30@10000143;10@10000158;5</t>
+  </si>
+  <si>
+    <t>1;420000@10000159;35@10010083;35@10000143;10@10000158;5</t>
+  </si>
+  <si>
+    <t>1;440000@10000159;35@10010083;35@10000143;10@10000158;5</t>
+  </si>
+  <si>
+    <t>1;460000@10000159;35@10010083;35@10000143;10@10000158;5</t>
+  </si>
+  <si>
+    <t>1;480000@10000159;35@10010083;35@10000143;10@10000158;5</t>
+  </si>
+  <si>
+    <t>1;500000@10000159;35@10010083;35@10000143;15@10000158;5</t>
+  </si>
+  <si>
+    <t>1;520000@10000159;40@10010083;40@10000143;15@10000158;5</t>
+  </si>
+  <si>
+    <t>1;540000@10000159;40@10010083;40@10000143;15@10000158;5</t>
+  </si>
+  <si>
+    <t>1;560000@10000159;40@10010083;40@10000143;15@10000158;5</t>
+  </si>
+  <si>
+    <t>1;580000@10000159;40@10010083;40@10000143;15@10000158;5</t>
+  </si>
+  <si>
+    <t>1;600000@10000159;40@10010083;40@10000143;15@10000158;5</t>
+  </si>
+  <si>
+    <t>1;50000@10000159;10@10010083;10@10000158;1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -88,18 +157,24 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,6 +187,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1917,16 +1994,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I14"/>
+  <dimension ref="C1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="80.625" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2"/>
   </cols>
@@ -1975,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>225</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1987,10 +2065,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -1999,10 +2077,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1125</v>
+        <v>190</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -2011,10 +2089,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>1350</v>
+        <v>250</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -2023,10 +2101,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>2600</v>
+        <v>310</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -2035,10 +2113,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>4250</v>
+        <v>370</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -2047,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>6600</v>
+        <v>440</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -2059,10 +2137,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>8400</v>
+        <v>500</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -2071,12 +2149,204 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
+        <v>560</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>620</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>670</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="6">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7">
+        <v>710</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="6">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>760</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="6">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>800</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="6">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>840</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="6">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7">
+        <v>910</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="6">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="6">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1080</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="6">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="6">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="6">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1330</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="6">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1420</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="6">
+        <v>23</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="6">
+        <v>24</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1600</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
         <v>10000</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7"/>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Excel/SeasonLevelConfig.xlsx
+++ b/Excel/SeasonLevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5EA797-802F-4D60-B7C6-1C892CF8FB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56DD3D-7812-439F-B75A-9AAC957748BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="960" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonLevelProto" sheetId="1" r:id="rId1"/>
@@ -1997,7 +1997,7 @@
   <dimension ref="C1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2065,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>7</v>
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>8</v>
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>9</v>
@@ -2101,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
@@ -2113,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>11</v>
@@ -2125,7 +2125,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>12</v>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
@@ -2149,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>560</v>
+        <v>690</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>14</v>
@@ -2161,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>620</v>
+        <v>750</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>15</v>
@@ -2173,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>16</v>
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>710</v>
+        <v>840</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>17</v>
@@ -2197,7 +2197,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>760</v>
+        <v>890</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>18</v>
@@ -2209,7 +2209,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>800</v>
+        <v>930</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>19</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>840</v>
+        <v>970</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>20</v>
@@ -2233,7 +2233,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>910</v>
+        <v>1040</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>22</v>
@@ -2257,7 +2257,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>1080</v>
+        <v>1210</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>23</v>
@@ -2269,7 +2269,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>1160</v>
+        <v>1290</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>24</v>
@@ -2281,7 +2281,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>1250</v>
+        <v>1380</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>25</v>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="7">
-        <v>1330</v>
+        <v>1460</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>26</v>
@@ -2305,7 +2305,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="7">
-        <v>1420</v>
+        <v>1550</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>27</v>
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="7">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>28</v>
@@ -2329,7 +2329,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>1600</v>
+        <v>1720</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>29</v>
@@ -2341,7 +2341,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>10000</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>30</v>

--- a/Excel/SeasonLevelConfig.xlsx
+++ b/Excel/SeasonLevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56DD3D-7812-439F-B75A-9AAC957748BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAFEC44-F41D-4284-9345-8BF61EE6B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="960" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonLevelProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>1;50000@10000159;10@10010083;10@10000158;1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季属性</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PripertySet</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.03</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1997,7 +2009,7 @@
   <dimension ref="C1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2017,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="80.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2025,6 +2037,9 @@
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
@@ -2036,6 +2051,9 @@
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
@@ -2047,6 +2065,9 @@
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
@@ -2058,7 +2079,9 @@
       <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
@@ -2070,7 +2093,9 @@
       <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
@@ -2082,7 +2107,9 @@
       <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
@@ -2094,7 +2121,9 @@
       <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
@@ -2106,7 +2135,9 @@
       <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
@@ -2118,7 +2149,9 @@
       <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
@@ -2130,7 +2163,9 @@
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
@@ -2142,7 +2177,9 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
@@ -2154,7 +2191,9 @@
       <c r="E14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
@@ -2166,7 +2205,9 @@
       <c r="E15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
@@ -2178,7 +2219,9 @@
       <c r="E16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
@@ -2190,7 +2233,9 @@
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
@@ -2202,7 +2247,9 @@
       <c r="E18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
@@ -2214,7 +2261,9 @@
       <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
@@ -2226,7 +2275,9 @@
       <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
@@ -2238,7 +2289,9 @@
       <c r="E21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
@@ -2250,7 +2303,9 @@
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
@@ -2262,7 +2317,9 @@
       <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
@@ -2274,7 +2331,9 @@
       <c r="E24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
@@ -2286,7 +2345,9 @@
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
@@ -2298,7 +2359,9 @@
       <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
@@ -2310,7 +2373,9 @@
       <c r="E27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
@@ -2322,7 +2387,9 @@
       <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
@@ -2334,7 +2401,9 @@
       <c r="E29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
@@ -2346,7 +2415,9 @@
       <c r="E30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
